--- a/data/trans_dic/P19F$mañana-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3821231307744211</v>
+        <v>0.3761892883062873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4067372926214343</v>
+        <v>0.4132700119098651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4172489705513288</v>
+        <v>0.4107897158493662</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5194765711456401</v>
+        <v>0.5241975460021063</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5838632717721147</v>
+        <v>0.5872271517745373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5240652085095697</v>
+        <v>0.5255045473097774</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3191992946391883</v>
+        <v>0.3205426937359355</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3847931681858809</v>
+        <v>0.371058780864287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3762943306846273</v>
+        <v>0.3730283609714158</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4653358286649187</v>
+        <v>0.4734707943161147</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5394839558078599</v>
+        <v>0.5272993832831179</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4829816488918027</v>
+        <v>0.4789171204648318</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3536885170602443</v>
+        <v>0.3498840592139157</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.415993053850053</v>
+        <v>0.4131065909528336</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3798613645936719</v>
+        <v>0.3830727642967195</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4680948847761064</v>
+        <v>0.4671079910362922</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6445719646064113</v>
+        <v>0.6491675618154845</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.486548443075722</v>
+        <v>0.4811674033929275</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3576195129671904</v>
+        <v>0.357288386388511</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4261562464254555</v>
+        <v>0.4283484881703093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4004995110596471</v>
+        <v>0.3982504248129197</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4344326018544098</v>
+        <v>0.4329552576424662</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5313676660600462</v>
+        <v>0.5244710080906425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4596998955265486</v>
+        <v>0.4596173376589183</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3541854993459185</v>
+        <v>0.354523142306823</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3584285446100364</v>
+        <v>0.36149635384023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3749663647920447</v>
+        <v>0.3697609747899329</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4591139655418381</v>
+        <v>0.4590919424915784</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.460370478684935</v>
+        <v>0.4601339419305449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4470440929464768</v>
+        <v>0.4478447197667527</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3562166467458603</v>
+        <v>0.354385893388977</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3800033767477154</v>
+        <v>0.3789397400153208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3892608035070161</v>
+        <v>0.3902453749103963</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5152167265690332</v>
+        <v>0.5138932678884681</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4653831144095664</v>
+        <v>0.4680441194890481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4635105158536444</v>
+        <v>0.4652709227587681</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3858425377240608</v>
+        <v>0.384759305410849</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4234470942986183</v>
+        <v>0.4247017768574822</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.411217987910177</v>
+        <v>0.4117227497613045</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4325162297260692</v>
+        <v>0.4325263936084762</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4717252673791154</v>
+        <v>0.4731240545660023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.444697108610547</v>
+        <v>0.4455226184867767</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>76333</v>
+        <v>75147</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>52402</v>
+        <v>53243</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>137105</v>
+        <v>134983</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>103770</v>
+        <v>104713</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>75221</v>
+        <v>75655</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>172204</v>
+        <v>172677</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>57189</v>
+        <v>57429</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>69054</v>
+        <v>66589</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>134947</v>
+        <v>133775</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>83371</v>
+        <v>84828</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>96814</v>
+        <v>94628</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>173207</v>
+        <v>171749</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>99771</v>
+        <v>98698</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>31019</v>
+        <v>30804</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>135479</v>
+        <v>136624</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>132044</v>
+        <v>131766</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>48063</v>
+        <v>48406</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>173529</v>
+        <v>171610</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>222685</v>
+        <v>222479</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>180137</v>
+        <v>181063</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>418677</v>
+        <v>416326</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>270516</v>
+        <v>269596</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>224610</v>
+        <v>221694</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>480565</v>
+        <v>480478</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>119370</v>
+        <v>119484</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>145112</v>
+        <v>146354</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>278182</v>
+        <v>274320</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>154734</v>
+        <v>154727</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>186384</v>
+        <v>186288</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>331655</v>
+        <v>332249</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>55903</v>
+        <v>55615</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>200528</v>
+        <v>199967</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>266501</v>
+        <v>267175</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>80855</v>
+        <v>80647</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>245583</v>
+        <v>246987</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>317335</v>
+        <v>318540</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>685896</v>
+        <v>683970</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>736000</v>
+        <v>738181</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1445749</v>
+        <v>1447524</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>768866</v>
+        <v>768884</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>819913</v>
+        <v>822344</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1563454</v>
+        <v>1566356</v>
       </c>
     </row>
     <row r="32">
